--- a/Tournois/Importer utilisateurs tournoi.xlsx
+++ b/Tournois/Importer utilisateurs tournoi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Utilisateurs\Grégoire\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\TournoisEscalade\htdocs\Tournois\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E969202-8492-430C-A08C-70D2DC4C35D1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B700E78-03A1-4A0C-927D-F964C7B12DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82012E9F-6AB6-404A-9AC3-46DA4D4D08D2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{82012E9F-6AB6-404A-9AC3-46DA4D4D08D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Nom</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>Catégorie</t>
   </si>
 </sst>
 </file>
@@ -422,20 +425,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6581A5-B760-4CCD-B4F4-42061978AC72}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="14.28515625" customWidth="1"/>
+    <col min="1" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,13 +461,16 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D2" s="2"/>
     </row>
   </sheetData>
